--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\PycharmProjects\Louvre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E94B451-020F-40A8-B79B-34752DA86498}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53720DE6-5E38-416F-A28A-B50654784498}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16452" windowHeight="6036" xr2:uid="{53371116-8961-42DB-9B65-A67C968DD0D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="0" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -383,15 +384,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C31CFA-047C-4FB9-8073-FAFA289E2EC5}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -399,17 +400,172 @@
         <v>1</v>
       </c>
       <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83914179-2105-4235-8293-4C7DC0CDE742}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\PycharmProjects\Louvre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53720DE6-5E38-416F-A28A-B50654784498}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC27781-7422-4702-B548-856B2B6EAEAE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16452" windowHeight="6036" xr2:uid="{53371116-8961-42DB-9B65-A67C968DD0D4}"/>
   </bookViews>
@@ -27,6 +27,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,8 +69,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -387,13 +393,13 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
       <c r="B1">
